--- a/PROPOSAL/FYP - TIMELINE.xlsx
+++ b/PROPOSAL/FYP - TIMELINE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>TITLE</t>
   </si>
@@ -22,28 +22,28 @@
     <t>DATE</t>
   </si>
   <si>
+    <t>WEEK</t>
+  </si>
+  <si>
     <t>DESCRIBE</t>
   </si>
   <si>
     <t>PART</t>
   </si>
   <si>
+    <t>DAY</t>
+  </si>
+  <si>
     <t>MEETING 1</t>
   </si>
   <si>
-    <r>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 主题，目标，对象</t>
-    </r>
+    <t>29/6/2020</t>
+  </si>
+  <si>
+    <t>WEEK -1</t>
+  </si>
+  <si>
+    <t>→ 主题，目标，对象</t>
   </si>
   <si>
     <t>PLAN</t>
@@ -52,67 +52,136 @@
     <t>→ 功能</t>
   </si>
   <si>
+    <t>29-5/7/2020</t>
+  </si>
+  <si>
     <t>→ 功能分配 (PAGE)</t>
   </si>
   <si>
+    <t>→ STRUCTURE</t>
+  </si>
+  <si>
+    <t>MEETING 2</t>
+  </si>
+  <si>
+    <t>6/7/2020</t>
+  </si>
+  <si>
+    <t>WEEK 1</t>
+  </si>
+  <si>
+    <t>→ template design</t>
+  </si>
+  <si>
     <t>DESIGN</t>
   </si>
   <si>
-    <t>→ STRUCTURE</t>
-  </si>
-  <si>
-    <t>→ template design</t>
+    <t>6-12/7/2020</t>
   </si>
   <si>
     <t>→ 分工 design</t>
   </si>
   <si>
-    <t>→</t>
-  </si>
-  <si>
-    <t>MEETING 2</t>
+    <t>13-19/7/2020</t>
+  </si>
+  <si>
+    <t>WEEK 2</t>
+  </si>
+  <si>
+    <t>INTERIM PRESENTATION</t>
+  </si>
+  <si>
+    <t>MEETING 3</t>
+  </si>
+  <si>
+    <t>20/7/2020</t>
+  </si>
+  <si>
+    <t>WEEK 3-5</t>
   </si>
   <si>
     <t xml:space="preserve">→ ANALYSIS </t>
   </si>
   <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>20-8/8/2020</t>
+  </si>
+  <si>
     <t>→ 分工 code</t>
   </si>
   <si>
-    <t>CODE</t>
-  </si>
-  <si>
-    <t>MEETING 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">→ </t>
+    <t>MEETING 4</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>WEEK 6-8</t>
+  </si>
+  <si>
+    <t>→ 讨论遇到的问题</t>
+  </si>
+  <si>
+    <t>10-30/8/2020</t>
   </si>
   <si>
     <t>→ 解决问题</t>
   </si>
   <si>
-    <t>→ 分工 test</t>
+    <t>MEETING 5</t>
+  </si>
+  <si>
+    <t>31/8/2020</t>
+  </si>
+  <si>
+    <t>WEEK 9</t>
+  </si>
+  <si>
+    <t>→ 互相 test</t>
   </si>
   <si>
     <t>TEST</t>
   </si>
   <si>
+    <t>31-6/9/2020</t>
+  </si>
+  <si>
     <t>→ 和其他team交换test(ALTERNATIVE)</t>
   </si>
   <si>
-    <t>MEETING 4</t>
+    <t>MEETING 6</t>
+  </si>
+  <si>
+    <t>7/9/2020</t>
+  </si>
+  <si>
+    <t>WEEK 10</t>
   </si>
   <si>
     <t>→ 总结问题</t>
   </si>
   <si>
+    <t>DEBUG</t>
+  </si>
+  <si>
     <t>→ 分析问题</t>
   </si>
   <si>
+    <t>7-13/9/2020</t>
+  </si>
+  <si>
     <t>→ 分工 debug</t>
   </si>
   <si>
-    <t>DEBUG</t>
+    <t>FINAL</t>
+  </si>
+  <si>
+    <t>13/9/2020</t>
+  </si>
+  <si>
+    <t>FOR WEEK 11 DEMO PROJECT</t>
   </si>
 </sst>
 </file>
@@ -121,11 +190,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +219,64 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -163,22 +290,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,16 +299,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,66 +358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -282,16 +373,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +395,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -330,19 +419,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,7 +563,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,151 +599,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,6 +688,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -615,17 +721,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,31 +754,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,10 +776,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,139 +788,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -839,7 +937,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -851,53 +952,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -905,22 +1024,58 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,6 +1134,7 @@
   <colors>
     <mruColors>
       <color rgb="00FFFE83"/>
+      <color rgb="00D6A16D"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1247,256 +1403,371 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E26"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="16.7272727272727" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="51.1636363636364" style="2" customWidth="1"/>
+    <col min="3" max="4" width="23.5090909090909" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.1636363636364" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.72727272727273" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="2:5">
-      <c r="B3" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:8">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
+      <c r="G3" s="11">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="5"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="13" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="9"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="13" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="15"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="5" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="13" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="19" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="3"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="5" t="s">
+      <c r="E7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="19" t="s">
+      <c r="G7" s="11">
+        <v>7</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="22"/>
+      <c r="C8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="3"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="3"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="25" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="3"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="25" t="s">
+      <c r="D9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="3"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="5" t="s">
+      <c r="E9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="25" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="9"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="25" t="s">
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="28"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="15"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="29" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E10" s="33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="3"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="31"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="3"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="31"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="3"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="31"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="3"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="32"/>
+      <c r="F10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="11">
+        <v>21</v>
+      </c>
+      <c r="H10" s="15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="11">
+        <v>21</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="6">
+        <v>7</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="8"/>
+      <c r="C17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="11">
+        <v>7</v>
+      </c>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="7"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="4"/>
+      <c r="C20" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="44"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+    </row>
+    <row r="22" spans="7:8">
+      <c r="G22" s="52">
+        <v>70</v>
+      </c>
+      <c r="H22" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B10"/>
+  <mergeCells count="33">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E11"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="H10:H20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
